--- a/results/Vertical_Only_Res.xlsx
+++ b/results/Vertical_Only_Res.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sydneykatz/Documents/Airbus/XrSim/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C20857-F91A-824E-9682-DE186A0A6409}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE70A431-4A54-DB43-BCF3-BF647DC59F75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="760" windowWidth="28040" windowHeight="17040" xr2:uid="{2BEB2150-67D3-0444-B4DA-18E726550F42}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Unequipped</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>Risk Ratio</t>
-  </si>
-  <si>
-    <t>%NMAC</t>
-  </si>
-  <si>
-    <t>%Alert</t>
   </si>
   <si>
     <t>Number of Encounters</t>
@@ -82,14 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -165,15 +152,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -307,54 +285,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -669,691 +642,534 @@
   <dimension ref="B1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:18">
       <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18">
       <c r="H2">
         <v>5000</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:18">
+      <c r="B4" t="s" s="16">
+        <v>10</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="14"/>
+      <c r="F4" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="14"/>
+      <c r="J4" t="s" s="16">
+        <v>5</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="1"/>
+      <c r="C5" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
-      <c r="H4" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
-      <c r="N4" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="26"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="2" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" t="s" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>2427</v>
-      </c>
-      <c r="D6" s="4">
-        <f>C6/H2</f>
-        <v>0.4854</v>
-      </c>
-      <c r="E6" s="2">
+        <v>1765</v>
+      </c>
+      <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="5">
-        <f>E6/H2</f>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="2">
+        <v>1765</v>
+      </c>
+      <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="2">
-        <v>2427</v>
-      </c>
-      <c r="J6" s="4">
-        <f>I6/H2</f>
-        <v>0.4854</v>
+      <c r="I6" s="2"/>
+      <c r="J6" t="s" s="1">
+        <v>0</v>
       </c>
       <c r="K6" s="2">
+        <v>2046</v>
+      </c>
+      <c r="L6" s="3">
         <v>0</v>
       </c>
-      <c r="L6" s="5">
-        <f>K6/H2</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>2046</v>
-      </c>
-      <c r="P6" s="4">
-        <f>O6/H2</f>
-        <v>0.40920000000000001</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
-        <f>Q6/H2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" t="s" s="1">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1626</v>
-      </c>
-      <c r="D7" s="4">
-        <f>C7/H2</f>
-        <v>0.31340000000000001</v>
-      </c>
-      <c r="E7">
-        <v>2353</v>
-      </c>
-      <c r="F7" s="5">
-        <f>E7/H2</f>
-        <v>0.55940000000000001</v>
-      </c>
-      <c r="H7" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D7">
+        <v>2850</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1568</v>
-      </c>
-      <c r="J7" s="4">
-        <f>I7/H2</f>
-        <v>0.3246</v>
+      <c r="G7">
+        <v>908</v>
+      </c>
+      <c r="H7">
+        <v>3011</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" t="s" s="1">
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>2491</v>
-      </c>
-      <c r="L7" s="5">
-        <f>K7/H2</f>
-        <v>0.55940000000000001</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1202</v>
-      </c>
-      <c r="P7" s="4">
-        <f>O7/H2</f>
-        <v>0.2414</v>
-      </c>
-      <c r="Q7">
+        <v>978</v>
+      </c>
+      <c r="L7">
         <v>3338</v>
       </c>
-      <c r="R7" s="5">
-        <f>Q7/H2</f>
-        <v>0.66759999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>8</v>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" t="s" s="1">
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>1011</v>
-      </c>
-      <c r="D8" s="4">
-        <f>C8/H2</f>
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="E8">
-        <v>4211</v>
-      </c>
-      <c r="F8" s="5">
-        <f>E8/H2</f>
-        <v>0.84219999999999995</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8">
-        <v>1147</v>
-      </c>
-      <c r="J8" s="4">
-        <f>I8/H2</f>
-        <v>0.14799999999999999</v>
+        <v>465</v>
+      </c>
+      <c r="D8">
+        <v>4380</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>244</v>
+      </c>
+      <c r="H8">
+        <v>4583</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" t="s" s="1">
+        <v>6</v>
       </c>
       <c r="K8">
-        <v>4592</v>
-      </c>
-      <c r="L8" s="5">
-        <f>K8/H2</f>
-        <v>0.91839999999999999</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O8">
-        <v>613</v>
-      </c>
-      <c r="P8" s="4">
-        <f>O8/H2</f>
-        <v>0.112</v>
-      </c>
-      <c r="Q8">
+        <v>402</v>
+      </c>
+      <c r="L8">
         <v>4892</v>
       </c>
-      <c r="R8" s="5">
-        <f>Q8/H2</f>
-        <v>0.97840000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="2:18">
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="H9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="2"/>
       <c r="L9" s="3"/>
-      <c r="N9" s="1"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" t="s" s="1">
         <v>3</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-      <c r="H10" s="1" t="s">
+      <c r="F10" t="s" s="1">
         <v>3</v>
       </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="J10" t="s" s="1">
+        <v>3</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="3"/>
-      <c r="N10" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="9">
-        <f>C7/C6</f>
-        <v>0.66996291718170586</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="C11">
+        <v>0.5824362606232295</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="8" t="s">
+      <c r="F11" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="I11" s="9">
-        <f>I7/I6</f>
-        <v>0.646065100947672</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="G11">
+        <v>0.5144475920679886</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0.4780058651026393</v>
+      </c>
       <c r="L11" s="3"/>
-      <c r="N11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="O11" s="9">
-        <f>O7/O6</f>
-        <v>0.58748778103616817</v>
-      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="10" t="s">
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>0.26345609065155806</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>0.13824362606232293</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="2"/>
+      <c r="J12" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>0.19648093841642228</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" t="s" s="16">
         <v>8</v>
       </c>
-      <c r="C12" s="11">
-        <f>C8/C6</f>
-        <v>0.41656365883807167</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="H12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="11">
-        <f>I8/I6</f>
-        <v>0.47259991759373715</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="7"/>
-      <c r="N12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="O12" s="11">
-        <f>O8/O6</f>
-        <v>0.29960899315738027</v>
-      </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="H15" s="24" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="14"/>
+      <c r="F15" t="s" s="16">
+        <v>7</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="15"/>
+      <c r="J15" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
-      <c r="N15" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="23"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="2"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+    </row>
+    <row r="16" spans="2:18">
       <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="C16" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="G16" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="2" t="s">
+      <c r="I16" s="2"/>
+      <c r="J16" s="8"/>
+      <c r="K16" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="L16" t="s" s="9">
         <v>2</v>
       </c>
-      <c r="R16" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" t="s" s="1">
         <v>0</v>
       </c>
       <c r="C17" s="2">
         <v>1760</v>
       </c>
-      <c r="D17" s="4">
-        <f>C17/H2</f>
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="F17" s="5">
-        <f>E17/H2</f>
+      <c r="E17" s="2"/>
+      <c r="F17" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="G17" s="2">
+        <v>360</v>
+      </c>
+      <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="2">
-        <v>360</v>
-      </c>
-      <c r="J17" s="4">
-        <f>I17/H2</f>
-        <v>7.1999999999999995E-2</v>
+      <c r="I17" s="2"/>
+      <c r="J17" t="s" s="8">
+        <v>0</v>
       </c>
       <c r="K17" s="2">
+        <f>C6+K6+C17+G17</f>
+        <v>5931</v>
+      </c>
+      <c r="L17" s="9">
         <v>0</v>
       </c>
-      <c r="L17" s="5">
-        <f>K17/H2</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <f>C6+O6+C17+I17</f>
-        <v>6593</v>
-      </c>
-      <c r="P17" s="4">
-        <f>O17/20000</f>
-        <v>0.32965</v>
-      </c>
-      <c r="Q17" s="2">
-        <f>E6+Q6+E17+K17</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="15">
-        <f>Q17/20000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" t="s" s="1">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>963</v>
-      </c>
-      <c r="D18" s="4">
-        <f>C18/H2</f>
-        <v>0.19439999999999999</v>
-      </c>
-      <c r="E18">
+        <v>791</v>
+      </c>
+      <c r="D18">
         <v>3384</v>
       </c>
-      <c r="F18" s="5">
-        <f>E18/H2</f>
-        <v>0.67679999999999996</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>351</v>
-      </c>
-      <c r="J18" s="4">
-        <f>I18/H2</f>
-        <v>8.1600000000000006E-2</v>
-      </c>
-      <c r="K18">
+      <c r="G18">
+        <v>180</v>
+      </c>
+      <c r="H18">
         <v>3505</v>
       </c>
-      <c r="L18" s="5">
-        <f>K18/H2</f>
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="N18" s="13" t="s">
+      <c r="I18" s="2"/>
+      <c r="J18" t="s" s="8">
         <v>1</v>
       </c>
-      <c r="O18" s="2">
-        <f>C7+O7+C18+I18</f>
-        <v>4154</v>
-      </c>
-      <c r="P18" s="4">
-        <f>O18/20000</f>
-        <v>0.2077</v>
-      </c>
-      <c r="Q18" s="2">
-        <f>E7+Q7+E18+K18</f>
-        <v>13024</v>
-      </c>
-      <c r="R18" s="15">
-        <f>Q18/20000</f>
-        <v>0.6512</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>8</v>
+      <c r="K18" s="2">
+        <v>4142</v>
+      </c>
+      <c r="L18" s="9">
+        <v>12580</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" t="s" s="1">
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>491</v>
-      </c>
-      <c r="D19" s="4">
-        <f>C19/H2</f>
-        <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="E19">
+        <v>275</v>
+      </c>
+      <c r="D19">
         <v>4915</v>
       </c>
-      <c r="F19" s="5">
-        <f>E19/H2</f>
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19">
-        <v>303</v>
-      </c>
-      <c r="J19" s="4">
-        <f>I19/H2</f>
-        <v>0.1114</v>
-      </c>
-      <c r="K19">
+      <c r="E19" s="2"/>
+      <c r="F19" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>91</v>
+      </c>
+      <c r="H19">
         <v>3351</v>
       </c>
-      <c r="L19" s="5">
-        <f>K19/H2</f>
-        <v>0.67020000000000002</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O19" s="2">
-        <f>C8+O8+C19+I19</f>
-        <v>2288</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0.1144</v>
-      </c>
-      <c r="Q19" s="2">
-        <f>E8+Q8+E19+K19</f>
+      <c r="I19" s="2"/>
+      <c r="J19" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K19" s="2">
+        <v>2418</v>
+      </c>
+      <c r="L19" s="9">
         <v>17369</v>
       </c>
-      <c r="R19" s="15">
-        <v>0.86845000000000006</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:18">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="H20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="8"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="3"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="14"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" t="s" s="1">
         <v>3</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
-      <c r="H21" s="1" t="s">
+      <c r="F21" t="s" s="1">
         <v>3</v>
       </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="J21" t="s" s="8">
+        <v>3</v>
+      </c>
       <c r="K21" s="2"/>
-      <c r="L21" s="3"/>
-      <c r="N21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="14"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="8" t="s">
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="C22" s="9">
-        <f>C18/C17</f>
-        <v>0.54715909090909087</v>
-      </c>
-      <c r="D22" s="2"/>
+      <c r="C22">
+        <v>0.44943181818181815</v>
+      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="H22" s="8" t="s">
+      <c r="F22" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="I22" s="9">
-        <f>I18/I17</f>
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="3"/>
-      <c r="N22" s="16" t="s">
+      <c r="G22">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="2"/>
+      <c r="J22" t="s" s="10">
         <v>1</v>
       </c>
-      <c r="O22" s="12">
-        <f>O18/O17</f>
-        <v>0.63006218716820872</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="14"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="11">
-        <f>C19/C17</f>
-        <v>0.27897727272727274</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-      <c r="H23" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="11">
-        <f>I19/I17</f>
-        <v>0.84166666666666667</v>
-      </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="7"/>
-      <c r="N23" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="O23" s="18">
-        <f>O19/O17</f>
-        <v>0.34703473380858485</v>
-      </c>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="20"/>
+      <c r="K22" s="7">
+        <f>K18/K17</f>
+        <v>0.69836452537514748</v>
+      </c>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>0.15625</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="2"/>
+      <c r="F23" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="2"/>
+      <c r="J23" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="K23" s="12">
+        <f>K19/K17</f>
+        <v>0.4076884167931209</v>
+      </c>
+      <c r="L23" s="13"/>
+      <c r="M23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="J15:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="P17:P19 Q17:Q19" formula="1"/>
+    <ignoredError sqref="L17:L19" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/results/Vertical_Only_Res.xlsx
+++ b/results/Vertical_Only_Res.xlsx
@@ -755,30 +755,30 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1028</v>
+        <v>77</v>
       </c>
       <c r="D7">
-        <v>2850</v>
+        <v>3936</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="1">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>908</v>
+        <v>7</v>
       </c>
       <c r="H7">
-        <v>3011</v>
+        <v>4013</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" t="s" s="1">
         <v>1</v>
       </c>
       <c r="K7">
-        <v>978</v>
+        <v>252</v>
       </c>
       <c r="L7">
-        <v>3338</v>
+        <v>4900</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -792,30 +792,30 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>465</v>
+        <v>129</v>
       </c>
       <c r="D8">
-        <v>4380</v>
+        <v>4370</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="1">
         <v>6</v>
       </c>
       <c r="G8">
-        <v>244</v>
+        <v>41</v>
       </c>
       <c r="H8">
-        <v>4583</v>
+        <v>4712</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" t="s" s="1">
         <v>6</v>
       </c>
       <c r="K8">
-        <v>402</v>
+        <v>247</v>
       </c>
       <c r="L8">
-        <v>4892</v>
+        <v>4982</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.5824362606232295</v>
+        <v>0.04362606232294618</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5144475920679886</v>
+        <v>0.00396600566572238</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="2"/>
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>0.4780058651026393</v>
+        <v>0.12316715542521994</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="2"/>
@@ -904,7 +904,7 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>0.26345609065155806</v>
+        <v>0.07308781869688386</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
@@ -912,7 +912,7 @@
         <v>6</v>
       </c>
       <c r="G12">
-        <v>0.13824362606232293</v>
+        <v>0.02322946175637394</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="2"/>
@@ -920,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="K12">
-        <v>0.19648093841642228</v>
+        <v>0.12072336265884653</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="2"/>
@@ -1016,20 +1016,20 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>791</v>
+        <v>211</v>
       </c>
       <c r="D18">
-        <v>3384</v>
+        <v>4767</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="1">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="H18">
-        <v>3505</v>
+        <v>4884</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" t="s" s="8">
@@ -1047,20 +1047,20 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>275</v>
+        <v>143</v>
       </c>
       <c r="D19">
-        <v>4915</v>
+        <v>4983</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="1">
         <v>6</v>
       </c>
       <c r="G19">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="H19">
-        <v>3351</v>
+        <v>4006</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" t="s" s="8">
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0.44943181818181815</v>
+        <v>0.11988636363636364</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2"/>
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="2"/>
@@ -1136,7 +1136,7 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.15625</v>
+        <v>0.08125</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2"/>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="G23">
-        <v>0.25277777777777777</v>
+        <v>0.10833333333333334</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="2"/>

--- a/results/Vertical_Only_Res.xlsx
+++ b/results/Vertical_Only_Res.xlsx
@@ -755,30 +755,30 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="D7">
-        <v>3936</v>
+        <v>4102</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="1">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>4013</v>
+        <v>4185</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" t="s" s="1">
         <v>1</v>
       </c>
       <c r="K7">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="L7">
-        <v>4900</v>
+        <v>4885</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -792,7 +792,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D8">
         <v>4370</v>
@@ -802,20 +802,20 @@
         <v>6</v>
       </c>
       <c r="G8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>4712</v>
+        <v>4716</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" t="s" s="1">
         <v>6</v>
       </c>
       <c r="K8">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="L8">
-        <v>4982</v>
+        <v>4974</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.04362606232294618</v>
+        <v>0.07422096317280454</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.00396600566572238</v>
+        <v>0.004532577903682719</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="2"/>
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>0.12316715542521994</v>
+        <v>0.12756598240469208</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="2"/>
@@ -904,7 +904,7 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>0.07308781869688386</v>
+        <v>0.0708215297450425</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
@@ -912,7 +912,7 @@
         <v>6</v>
       </c>
       <c r="G12">
-        <v>0.02322946175637394</v>
+        <v>0.024362606232294616</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="2"/>
@@ -920,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="K12">
-        <v>0.12072336265884653</v>
+        <v>0.09237536656891496</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="2"/>
@@ -1016,20 +1016,20 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="D18">
-        <v>4767</v>
+        <v>4860</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="1">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="H18">
-        <v>4884</v>
+        <v>4934</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" t="s" s="8">
@@ -1047,20 +1047,20 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D19">
-        <v>4983</v>
+        <v>4990</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="1">
         <v>6</v>
       </c>
       <c r="G19">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="H19">
-        <v>4006</v>
+        <v>3969</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" t="s" s="8">
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0.11988636363636364</v>
+        <v>0.10170454545454545</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2"/>
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3194444444444444</v>
+        <v>0.25</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="2"/>
@@ -1136,7 +1136,7 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.08125</v>
+        <v>0.08579545454545455</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2"/>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="G23">
-        <v>0.10833333333333334</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="2"/>

--- a/results/Vertical_Only_Res.xlsx
+++ b/results/Vertical_Only_Res.xlsx
@@ -755,30 +755,30 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D7">
-        <v>4102</v>
+        <v>4010</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="1">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>4185</v>
+        <v>4081</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" t="s" s="1">
         <v>1</v>
       </c>
       <c r="K7">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L7">
-        <v>4885</v>
+        <v>4851</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -792,30 +792,30 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>4370</v>
+        <v>4627</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="1">
         <v>6</v>
       </c>
       <c r="G8">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="H8">
-        <v>4716</v>
+        <v>4978</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" t="s" s="1">
         <v>6</v>
       </c>
       <c r="K8">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="L8">
-        <v>4974</v>
+        <v>4977</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.07422096317280454</v>
+        <v>0.06062322946175638</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.004532577903682719</v>
+        <v>0.0016997167138810198</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="2"/>
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>0.12756598240469208</v>
+        <v>0.12609970674486803</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="2"/>
@@ -904,7 +904,7 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>0.0708215297450425</v>
+        <v>0.0226628895184136</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
@@ -912,7 +912,7 @@
         <v>6</v>
       </c>
       <c r="G12">
-        <v>0.024362606232294616</v>
+        <v>0.013597733711048159</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="2"/>
@@ -920,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="K12">
-        <v>0.09237536656891496</v>
+        <v>0.06256109481915934</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="2"/>
@@ -1016,30 +1016,30 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D18">
-        <v>4860</v>
+        <v>4872</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="1">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H18">
-        <v>4934</v>
+        <v>4935</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" t="s" s="8">
         <v>1</v>
       </c>
-      <c r="K18" s="2">
-        <v>4142</v>
-      </c>
-      <c r="L18" s="9">
-        <v>12580</v>
+      <c r="K18">
+        <v>656</v>
+      </c>
+      <c r="L18">
+        <v>22749</v>
       </c>
     </row>
     <row r="19" spans="2:18">
@@ -1047,30 +1047,30 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="D19">
-        <v>4990</v>
+        <v>4982</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="1">
         <v>6</v>
       </c>
       <c r="G19">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H19">
-        <v>3969</v>
+        <v>4898</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="K19" s="2">
-        <v>2418</v>
-      </c>
-      <c r="L19" s="9">
-        <v>17369</v>
+      <c r="K19">
+        <v>305</v>
+      </c>
+      <c r="L19">
+        <v>24462</v>
       </c>
     </row>
     <row r="20" spans="2:18">
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0.10170454545454545</v>
+        <v>0.11193181818181819</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2"/>
@@ -1118,16 +1118,15 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.25</v>
+        <v>0.25277777777777777</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="2"/>
       <c r="J22" t="s" s="10">
         <v>1</v>
       </c>
-      <c r="K22" s="7">
-        <f>K18/K17</f>
-        <v>0.69836452537514748</v>
+      <c r="K22">
+        <v>0.11060529421682684</v>
       </c>
       <c r="L22" s="9"/>
     </row>
@@ -1136,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.08579545454545455</v>
+        <v>0.05965909090909091</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2"/>
@@ -1144,16 +1143,15 @@
         <v>6</v>
       </c>
       <c r="G23">
-        <v>0.05555555555555555</v>
+        <v>0.022222222222222223</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="2"/>
       <c r="J23" t="s" s="11">
         <v>6</v>
       </c>
-      <c r="K23" s="12">
-        <f>K19/K17</f>
-        <v>0.4076884167931209</v>
+      <c r="K23">
+        <v>0.05142471758556736</v>
       </c>
       <c r="L23" s="13"/>
       <c r="M23" s="2"/>
